--- a/templates/output/template1.xlsx
+++ b/templates/output/template1.xlsx
@@ -111,9 +111,6 @@
     <t>REVISION NO : 1</t>
   </si>
   <si>
-    <t>DATE :19 AGUSTUS 2011</t>
-  </si>
-  <si>
     <t>RASIO WT/WD = 0.7 - 1.5</t>
   </si>
   <si>
@@ -212,17 +209,21 @@
   <si>
     <t>PEMBANGUNAN TRANSMISI 150kV PADALARANG-CIBABAT</t>
   </si>
+  <si>
+    <t>DATE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\+0;\-0"/>
+    <numFmt numFmtId="169" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -894,7 +895,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="14" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,19 +1027,14 @@
     <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,6 +1045,27 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1067,9 +1084,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1110,23 +1124,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,6 +1155,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1218,18 +1232,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="26" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Comma [0] 2" xfId="2"/>
@@ -1827,7 +1830,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1850,7 @@
     <col min="14" max="14" width="14.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.44140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.88671875" style="1" customWidth="1"/>
     <col min="18" max="248" width="9.109375" style="1"/>
     <col min="249" max="249" width="3.33203125" style="1" customWidth="1"/>
     <col min="250" max="250" width="7" style="1" customWidth="1"/>
@@ -3239,96 +3242,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="135"/>
-      <c r="C2" s="136"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
       <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="99"/>
+    </row>
+    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="94"/>
-    </row>
-    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="92"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
       <c r="M4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="15"/>
@@ -3342,26 +3345,26 @@
         <v>6</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="94"/>
       <c r="M6" s="19"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -3373,34 +3376,34 @@
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="90" t="s">
-        <v>37</v>
+      <c r="F7" s="95" t="s">
+        <v>36</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="97"/>
       <c r="M7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="95" t="s">
+      <c r="N7" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="95" t="s">
+      <c r="O7" s="101"/>
+      <c r="P7" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="140"/>
+    </row>
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="96"/>
-    </row>
-    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -3415,114 +3418,114 @@
       <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="2:17" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="D9" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="E9" s="86"/>
+      <c r="F9" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="76" t="s">
+      <c r="G9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="H9" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="I9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="J9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="99" t="s">
+      <c r="N9" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="76" t="s">
+      <c r="O9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="85" t="s">
+      <c r="P9" s="78"/>
+      <c r="Q9" s="79"/>
+    </row>
+    <row r="10" spans="2:17" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="83"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="102"/>
-    </row>
-    <row r="10" spans="2:17" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="74"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="31" t="s">
+      <c r="K10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="L10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="M10" s="73"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="100"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77" t="s">
+      <c r="P10" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="77" t="s">
+      <c r="Q10" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="103" t="s">
+    </row>
+    <row r="11" spans="2:17" s="30" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="89" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" s="30" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="83" t="s">
+      <c r="E11" s="90"/>
+      <c r="F11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="34" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" s="35"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="104"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="81"/>
     </row>
     <row r="12" spans="2:17" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="56"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -3531,144 +3534,144 @@
       <c r="K12" s="58"/>
       <c r="L12" s="60"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="71" t="s">
+      <c r="N12" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="71" t="s">
+      <c r="P12" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="71" t="s">
+      <c r="Q12" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="110" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="13" spans="2:17" s="30" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="121"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="122">
+      <c r="B13" s="126"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="127">
         <v>60</v>
       </c>
-      <c r="G13" s="122">
+      <c r="G13" s="127">
         <f>F13</f>
         <v>60</v>
       </c>
-      <c r="H13" s="122">
+      <c r="H13" s="127">
         <f>G13</f>
         <v>60</v>
       </c>
-      <c r="I13" s="122">
+      <c r="I13" s="127">
         <f>H13</f>
         <v>60</v>
       </c>
       <c r="J13" s="59"/>
       <c r="K13" s="58"/>
       <c r="L13" s="60"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="111"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="114"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="126">
+      <c r="B14" s="131">
         <v>1</v>
       </c>
-      <c r="C14" s="128">
+      <c r="C14" s="133">
         <v>1</v>
       </c>
-      <c r="D14" s="129" t="s">
-        <v>34</v>
+      <c r="D14" s="134" t="s">
+        <v>33</v>
       </c>
-      <c r="E14" s="130">
+      <c r="E14" s="135">
         <v>0</v>
       </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="71" t="s">
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="71" t="s">
+      <c r="P14" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="71" t="s">
+      <c r="Q14" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="110" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="127"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="122">
+      <c r="B15" s="132"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="127">
         <v>118.68</v>
       </c>
-      <c r="G15" s="122">
+      <c r="G15" s="127">
         <f>G13+F15</f>
         <v>178.68</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="127">
         <f>F15</f>
         <v>118.68</v>
       </c>
-      <c r="I15" s="122">
+      <c r="I15" s="127">
         <f>H15</f>
         <v>118.68</v>
       </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="111"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="114"/>
     </row>
     <row r="16" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="69"/>
       <c r="K16" s="70"/>
       <c r="L16" s="70"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="71" t="s">
+      <c r="M16" s="139"/>
+      <c r="N16" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="71" t="s">
+      <c r="P16" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="71" t="s">
+      <c r="Q16" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="110" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="55"/>
       <c r="G17" s="10"/>
       <c r="H17" s="42"/>
@@ -3677,19 +3680,19 @@
       <c r="K17" s="66"/>
       <c r="L17" s="66"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="111"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="114"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="125" t="s">
-        <v>35</v>
+      <c r="B18" s="130" t="s">
+        <v>34</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="61">
         <f>SUM(F13:F16)</f>
         <v>178.68</v>
@@ -3706,7 +3709,7 @@
       <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="105"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3724,7 +3727,7 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="106"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3747,7 +3750,7 @@
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="106"/>
+      <c r="B22" s="109"/>
       <c r="F22" s="54"/>
       <c r="G22" s="45"/>
       <c r="H22" s="46"/>
@@ -3756,15 +3759,15 @@
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
-      <c r="N22" s="109" t="s">
-        <v>37</v>
+      <c r="N22" s="112" t="s">
+        <v>36</v>
       </c>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
       <c r="Q22" s="48"/>
     </row>
     <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="106"/>
+      <c r="B23" s="109"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="46"/>
@@ -3773,13 +3776,13 @@
       <c r="K23" s="45"/>
       <c r="L23" s="45"/>
       <c r="M23" s="45"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
       <c r="Q23" s="45"/>
     </row>
     <row r="24" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="106"/>
+      <c r="B24" s="109"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="46"/>
@@ -3794,7 +3797,7 @@
       <c r="Q24" s="45"/>
     </row>
     <row r="25" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="106"/>
+      <c r="B25" s="109"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="46"/>
@@ -3809,7 +3812,7 @@
       <c r="Q25" s="45"/>
     </row>
     <row r="26" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="106"/>
+      <c r="B26" s="109"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="46"/>
@@ -3824,7 +3827,7 @@
       <c r="Q26" s="45"/>
     </row>
     <row r="27" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="106"/>
+      <c r="B27" s="109"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="46"/>
@@ -3839,7 +3842,7 @@
       <c r="Q27" s="45"/>
     </row>
     <row r="28" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="106"/>
+      <c r="B28" s="109"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="H28" s="46"/>
@@ -3854,7 +3857,7 @@
       <c r="Q28" s="45"/>
     </row>
     <row r="29" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="106"/>
+      <c r="B29" s="109"/>
       <c r="G29" s="45"/>
       <c r="H29" s="46"/>
       <c r="I29" s="47"/>
@@ -3868,7 +3871,7 @@
       <c r="Q29" s="45"/>
     </row>
     <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="106"/>
+      <c r="B30" s="109"/>
       <c r="F30" s="52"/>
       <c r="G30" s="45"/>
       <c r="H30" s="46"/>
@@ -3877,15 +3880,15 @@
       <c r="K30" s="45"/>
       <c r="L30" s="45"/>
       <c r="M30" s="45"/>
-      <c r="N30" s="107" t="s">
+      <c r="N30" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
       <c r="Q30" s="45"/>
     </row>
     <row r="31" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="106"/>
+      <c r="B31" s="109"/>
       <c r="E31" s="1"/>
       <c r="F31" s="53"/>
       <c r="G31" s="45"/>
@@ -3895,15 +3898,15 @@
       <c r="K31" s="45"/>
       <c r="L31" s="45"/>
       <c r="M31" s="45"/>
-      <c r="N31" s="108" t="s">
-        <v>36</v>
+      <c r="N31" s="111" t="s">
+        <v>35</v>
       </c>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="106"/>
+      <c r="B32" s="109"/>
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
       <c r="I32" s="47"/>
@@ -3914,27 +3917,27 @@
       <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="106"/>
+      <c r="B33" s="109"/>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="106"/>
+      <c r="B34" s="109"/>
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="106"/>
+      <c r="B35" s="109"/>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="106"/>
+      <c r="B36" s="109"/>
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="106"/>
+      <c r="B37" s="109"/>
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
@@ -9765,7 +9768,7 @@
       <c r="I1491" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="70">
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="H13:H14"/>
@@ -9797,6 +9800,7 @@
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B36:B37"/>
@@ -9813,7 +9817,6 @@
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B2:C6"/>
     <mergeCell ref="B1:Q1"/>
@@ -9821,22 +9824,21 @@
     <mergeCell ref="F3:L3"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="F4:L4"/>
-    <mergeCell ref="P14:P15"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="N9:N11"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.19685039370078741" top="0.35" bottom="0.38" header="0.31496062992125984" footer="0.28000000000000003"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/templates/output/template1.xlsx
+++ b/templates/output/template1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>GANTRY</t>
   </si>
@@ -171,18 +171,6 @@
     <t>(M)</t>
   </si>
   <si>
-    <t>Ladang</t>
-  </si>
-  <si>
-    <t>Setia Mulya</t>
-  </si>
-  <si>
-    <t>Taman Sari</t>
-  </si>
-  <si>
-    <t>Tasikmalaya</t>
-  </si>
-  <si>
     <t>Ddr4</t>
   </si>
   <si>
@@ -223,7 +211,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\+0;\-0"/>
-    <numFmt numFmtId="169" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1028,139 +1016,53 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="26" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="37" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="40" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,46 +1095,132 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="37" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="40" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="26" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Comma [0] 2" xfId="2"/>
@@ -1830,7 +1818,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3242,96 +3230,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="104"/>
-      <c r="C2" s="105"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
       <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="95" t="s">
-        <v>37</v>
+      <c r="F3" s="108" t="s">
+        <v>33</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="99"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="121"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="95" t="s">
-        <v>38</v>
+      <c r="F4" s="108" t="s">
+        <v>34</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110"/>
       <c r="M4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="15"/>
@@ -3345,26 +3333,26 @@
         <v>6</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="106"/>
-      <c r="C6" s="107"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
       <c r="M6" s="19"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -3376,34 +3364,34 @@
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="95" t="s">
-        <v>36</v>
+      <c r="F7" s="108" t="s">
+        <v>32</v>
       </c>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="97"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="100" t="s">
+      <c r="N7" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="101"/>
+      <c r="O7" s="112"/>
       <c r="P7" s="71" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
-      <c r="Q7" s="140"/>
+      <c r="Q7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -3418,54 +3406,54 @@
       <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="2:17" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="75" t="s">
+      <c r="E9" s="129"/>
+      <c r="F9" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="72" t="s">
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="75" t="s">
+      <c r="N9" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="78" t="s">
+      <c r="O9" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="79"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="138"/>
     </row>
     <row r="10" spans="2:17" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="83"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="31" t="s">
         <v>21</v>
       </c>
@@ -3475,25 +3463,25 @@
       <c r="L10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="73"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76" t="s">
+      <c r="M10" s="136"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="76" t="s">
+      <c r="P10" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="80" t="s">
+      <c r="Q10" s="139" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:17" s="30" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="84"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="89" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="133"/>
       <c r="F11" s="34" t="s">
         <v>28</v>
       </c>
@@ -3513,19 +3501,19 @@
         <v>28</v>
       </c>
       <c r="L11" s="35"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="81"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="140"/>
     </row>
     <row r="12" spans="2:17" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="56"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -3534,144 +3522,120 @@
       <c r="K12" s="58"/>
       <c r="L12" s="60"/>
       <c r="M12" s="36"/>
-      <c r="N12" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="113" t="s">
-        <v>32</v>
-      </c>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="87"/>
     </row>
     <row r="13" spans="2:17" s="30" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="126"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="127">
+      <c r="B13" s="98"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="76">
         <v>60</v>
       </c>
-      <c r="G13" s="127">
+      <c r="G13" s="76">
         <f>F13</f>
         <v>60</v>
       </c>
-      <c r="H13" s="127">
+      <c r="H13" s="76">
         <f>G13</f>
         <v>60</v>
       </c>
-      <c r="I13" s="127">
+      <c r="I13" s="76">
         <f>H13</f>
         <v>60</v>
       </c>
       <c r="J13" s="59"/>
       <c r="K13" s="58"/>
       <c r="L13" s="60"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="114"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="88"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="131">
+      <c r="B14" s="78">
         <v>1</v>
       </c>
-      <c r="C14" s="133">
+      <c r="C14" s="80">
         <v>1</v>
       </c>
-      <c r="D14" s="134" t="s">
-        <v>33</v>
+      <c r="D14" s="81" t="s">
+        <v>29</v>
       </c>
-      <c r="E14" s="135">
+      <c r="E14" s="82">
         <v>0</v>
       </c>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="113" t="s">
-        <v>32</v>
-      </c>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="87"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="132"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="127">
+      <c r="B15" s="79"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="76">
         <v>118.68</v>
       </c>
-      <c r="G15" s="127">
+      <c r="G15" s="76">
         <f>G13+F15</f>
         <v>178.68</v>
       </c>
-      <c r="H15" s="127">
+      <c r="H15" s="76">
         <f>F15</f>
         <v>118.68</v>
       </c>
-      <c r="I15" s="127">
+      <c r="I15" s="76">
         <f>H15</f>
         <v>118.68</v>
       </c>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="114"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="88"/>
     </row>
     <row r="16" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="69"/>
       <c r="K16" s="70"/>
       <c r="L16" s="70"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="113" t="s">
-        <v>32</v>
-      </c>
+      <c r="M16" s="86"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="87"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="55"/>
       <c r="G17" s="10"/>
       <c r="H17" s="42"/>
@@ -3680,19 +3644,19 @@
       <c r="K17" s="66"/>
       <c r="L17" s="66"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="114"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="88"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="130" t="s">
-        <v>34</v>
+      <c r="B18" s="73" t="s">
+        <v>30</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="61">
         <f>SUM(F13:F16)</f>
         <v>178.68</v>
@@ -3709,7 +3673,7 @@
       <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="108"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3727,7 +3691,7 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="109"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3750,7 +3714,7 @@
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="109"/>
+      <c r="B22" s="100"/>
       <c r="F22" s="54"/>
       <c r="G22" s="45"/>
       <c r="H22" s="46"/>
@@ -3759,15 +3723,15 @@
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
-      <c r="N22" s="112" t="s">
-        <v>36</v>
+      <c r="N22" s="104" t="s">
+        <v>32</v>
       </c>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
       <c r="Q22" s="48"/>
     </row>
     <row r="23" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="109"/>
+      <c r="B23" s="100"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="46"/>
@@ -3776,13 +3740,13 @@
       <c r="K23" s="45"/>
       <c r="L23" s="45"/>
       <c r="M23" s="45"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
       <c r="Q23" s="45"/>
     </row>
     <row r="24" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="109"/>
+      <c r="B24" s="100"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="46"/>
@@ -3797,7 +3761,7 @@
       <c r="Q24" s="45"/>
     </row>
     <row r="25" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="109"/>
+      <c r="B25" s="100"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="46"/>
@@ -3812,7 +3776,7 @@
       <c r="Q25" s="45"/>
     </row>
     <row r="26" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="109"/>
+      <c r="B26" s="100"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="46"/>
@@ -3827,7 +3791,7 @@
       <c r="Q26" s="45"/>
     </row>
     <row r="27" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="109"/>
+      <c r="B27" s="100"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="46"/>
@@ -3842,7 +3806,7 @@
       <c r="Q27" s="45"/>
     </row>
     <row r="28" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="109"/>
+      <c r="B28" s="100"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="H28" s="46"/>
@@ -3857,7 +3821,7 @@
       <c r="Q28" s="45"/>
     </row>
     <row r="29" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="109"/>
+      <c r="B29" s="100"/>
       <c r="G29" s="45"/>
       <c r="H29" s="46"/>
       <c r="I29" s="47"/>
@@ -3871,7 +3835,7 @@
       <c r="Q29" s="45"/>
     </row>
     <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="109"/>
+      <c r="B30" s="100"/>
       <c r="F30" s="52"/>
       <c r="G30" s="45"/>
       <c r="H30" s="46"/>
@@ -3880,15 +3844,15 @@
       <c r="K30" s="45"/>
       <c r="L30" s="45"/>
       <c r="M30" s="45"/>
-      <c r="N30" s="110" t="s">
+      <c r="N30" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
       <c r="Q30" s="45"/>
     </row>
     <row r="31" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="109"/>
+      <c r="B31" s="100"/>
       <c r="E31" s="1"/>
       <c r="F31" s="53"/>
       <c r="G31" s="45"/>
@@ -3898,15 +3862,15 @@
       <c r="K31" s="45"/>
       <c r="L31" s="45"/>
       <c r="M31" s="45"/>
-      <c r="N31" s="111" t="s">
-        <v>35</v>
+      <c r="N31" s="103" t="s">
+        <v>31</v>
       </c>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="109"/>
+      <c r="B32" s="100"/>
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
       <c r="I32" s="47"/>
@@ -3917,27 +3881,27 @@
       <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="109"/>
+      <c r="B33" s="100"/>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="109"/>
+      <c r="B34" s="100"/>
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="109"/>
+      <c r="B35" s="100"/>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="109"/>
+      <c r="B36" s="100"/>
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="109"/>
+      <c r="B37" s="100"/>
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
@@ -9769,6 +9733,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="O16:O17"/>
     <mergeCell ref="H13:H14"/>
@@ -9785,60 +9803,6 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="M15:M16"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.19685039370078741" top="0.35" bottom="0.38" header="0.31496062992125984" footer="0.28000000000000003"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/templates/output/template1.xlsx
+++ b/templates/output/template1.xlsx
@@ -59,7 +59,7 @@
     <definedName name="popp">#REF!</definedName>
     <definedName name="pp">#REF!</definedName>
     <definedName name="ppu">[4]Parameter!$C$113</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TOWER SCH'!$B$1:$Q$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TOWER SCH'!$B$1:$Q$19</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TOWER SCH'!$A$1:$IN$11</definedName>
     <definedName name="qw">#REF!</definedName>
     <definedName name="rt">#REF!</definedName>
@@ -82,12 +82,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>GANTRY</t>
-  </si>
-  <si>
-    <t>MOCH. SUROTO</t>
   </si>
   <si>
     <t>TOWER SCHEDULE</t>
@@ -175,9 +172,6 @@
   </si>
   <si>
     <t>TOTAL LENGTH :</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
   </si>
   <si>
     <t>PT. XYZ</t>
@@ -1818,7 +1812,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16:N17"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3231,7 +3225,7 @@
   <sheetData>
     <row r="1" spans="2:17" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="119"/>
@@ -3255,7 +3249,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="106"/>
       <c r="H2" s="106"/>
@@ -3264,10 +3258,10 @@
       <c r="K2" s="106"/>
       <c r="L2" s="107"/>
       <c r="M2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="7"/>
@@ -3279,7 +3273,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="109"/>
       <c r="H3" s="109"/>
@@ -3299,7 +3293,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="108" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" s="109"/>
       <c r="H4" s="109"/>
@@ -3308,10 +3302,10 @@
       <c r="K4" s="109"/>
       <c r="L4" s="110"/>
       <c r="M4" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="10"/>
@@ -3330,13 +3324,13 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="9"/>
@@ -3365,7 +3359,7 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="109"/>
       <c r="H7" s="109"/>
@@ -3374,20 +3368,20 @@
       <c r="K7" s="109"/>
       <c r="L7" s="110"/>
       <c r="M7" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7" s="111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" s="112"/>
       <c r="P7" s="71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="72"/>
     </row>
     <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="114"/>
       <c r="D8" s="114"/>
@@ -3407,40 +3401,40 @@
     </row>
     <row r="9" spans="2:17" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="D9" s="128" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>12</v>
       </c>
       <c r="E9" s="129"/>
       <c r="F9" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="125" t="s">
+      <c r="H9" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="125" t="s">
+      <c r="I9" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="125" t="s">
+      <c r="J9" s="134" t="s">
         <v>16</v>
-      </c>
-      <c r="J9" s="134" t="s">
-        <v>17</v>
       </c>
       <c r="K9" s="134"/>
       <c r="L9" s="134"/>
       <c r="M9" s="135" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="125" t="s">
+      <c r="O9" s="134" t="s">
         <v>19</v>
-      </c>
-      <c r="O9" s="134" t="s">
-        <v>20</v>
       </c>
       <c r="P9" s="134"/>
       <c r="Q9" s="138"/>
@@ -3455,50 +3449,50 @@
       <c r="H10" s="126"/>
       <c r="I10" s="126"/>
       <c r="J10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="L10" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="M10" s="136"/>
       <c r="N10" s="126"/>
       <c r="O10" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="126" t="s">
+      <c r="Q10" s="139" t="s">
         <v>25</v>
-      </c>
-      <c r="Q10" s="139" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:17" s="30" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="124"/>
       <c r="C11" s="127"/>
       <c r="D11" s="132" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="133"/>
       <c r="F11" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="137"/>
@@ -3564,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="82">
         <v>0</v>
@@ -3651,7 +3645,7 @@
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
@@ -3723,9 +3717,7 @@
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
-      <c r="N22" s="104" t="s">
-        <v>32</v>
-      </c>
+      <c r="N22" s="104"/>
       <c r="O22" s="104"/>
       <c r="P22" s="104"/>
       <c r="Q22" s="48"/>
@@ -3844,9 +3836,7 @@
       <c r="K30" s="45"/>
       <c r="L30" s="45"/>
       <c r="M30" s="45"/>
-      <c r="N30" s="102" t="s">
-        <v>1</v>
-      </c>
+      <c r="N30" s="102"/>
       <c r="O30" s="102"/>
       <c r="P30" s="102"/>
       <c r="Q30" s="45"/>
@@ -3862,9 +3852,7 @@
       <c r="K31" s="45"/>
       <c r="L31" s="45"/>
       <c r="M31" s="45"/>
-      <c r="N31" s="103" t="s">
-        <v>31</v>
-      </c>
+      <c r="N31" s="103"/>
       <c r="O31" s="103"/>
       <c r="P31" s="103"/>
       <c r="Q31" s="50"/>
